--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -501,7 +501,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -512,6 +512,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC9DAF8"/>
         <bgColor rgb="FFC9DAF8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE2F3"/>
+        <bgColor rgb="FFCFE2F3"/>
       </patternFill>
     </fill>
   </fills>
@@ -535,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -553,6 +559,9 @@
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -34724,28 +34733,28 @@
       <c r="U1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AA1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AB1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AC1" s="7" t="s">
         <v>104</v>
       </c>
     </row>
